--- a/pred_ohlcv/54_21/2019-10-31 DAD ohlcv-Jayone.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 DAD ohlcv-Jayone.xlsx
@@ -2914,7 +2914,7 @@
         <v>212980.8272137666</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>209932.4619137666</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>218596.1747925986</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>238206.2855925986</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>280297.4982168506</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>309585.1415197497</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>293939.2139133377</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>260821.8891070137</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>272409.0646184317</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>271589.7735184317</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>353065.8648179827</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>405153.5656230887</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>348316.3575538057</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>397737.3437321007</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>347291.1915224238</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>296236.2697815518</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>284657.9351952578</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>216456.2376817078</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13516.47137415978</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>37577.92771701578</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3260.37761701578</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-5264274.462198894</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-5276707.153398895</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-5279618.531598895</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-5287923.296898895</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-5330348.008698895</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-5340131.882998895</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-5381461.362398895</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-5367322.361998894</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-5345328.016498894</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-5341869.884698895</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-5345575.062698895</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-5344807.886798895</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-5349124.715698895</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-5361567.709098895</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5364487.501898895</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-5363902.819898895</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-5366871.708998895</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-5366067.129898896</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-5366067.129898896</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5369100.912498895</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-5409075.069798895</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-5395946.674198895</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-5369635.673998895</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-5369636.673998895</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-5366250.095327467</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-5369294.039427467</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-5351395.677127467</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-5349056.664327467</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-5349606.330994133</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-5350619.559094133</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-5349480.119094132</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-5342328.855973069</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-5344230.691773068</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-5307932.912473069</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-5239134.064573068</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-5228454.050173068</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-5218921.438173069</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-5204005.333073068</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-5282978.078073069</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-5282978.078073069</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-5471204.170373068</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-5471204.170373068</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-5471204.170373068</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-5471204.170373068</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-5845074.507373068</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-5516356.068473068</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-5516356.068473068</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-5679925.710373068</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-6008363.044773068</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-5832012.110373069</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-5959819.678673069</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-5959819.678673069</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-5959819.678673069</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-6105524.571573069</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-6105524.571573069</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-6105524.571573069</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-5999054.843958783</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-5986664.344258783</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-5851796.881058783</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-5851796.881058783</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-5720382.586058783</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-5665179.607458783</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-5631376.967180762</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-5877471.879180761</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 DAD ohlcv-Jayone.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 DAD ohlcv-Jayone.xlsx
@@ -2914,7 +2914,7 @@
         <v>212980.8272137666</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>209932.4619137666</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>218596.1747925986</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>238206.2855925986</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>280297.4982168506</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>309585.1415197497</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>293939.2139133377</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>260821.8891070137</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>272409.0646184317</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>271589.7735184317</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>353065.8648179827</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>405153.5656230887</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>348316.3575538057</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>397737.3437321007</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>347291.1915224238</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>296236.2697815518</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>284657.9351952578</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>216456.2376817078</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13516.47137415978</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>37577.92771701578</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3260.37761701578</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>95637.85791472078</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>103532.9028147208</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>166472.8289887028</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>168774.4483887028</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>207315.4013887028</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>181626.2129156598</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>203114.7320156598</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>194764.5559156598</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-5264274.462198894</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-5276707.153398895</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-5279618.531598895</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-5287923.296898895</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-5330348.008698895</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-5340131.882998895</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-5381461.362398895</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-5367322.361998894</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-5345328.016498894</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-5341869.884698895</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-5345575.062698895</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-5344807.886798895</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-5349124.715698895</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-5361567.709098895</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5364487.501898895</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-5363902.819898895</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-5366871.708998895</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-5366067.129898896</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-5366067.129898896</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5369100.912498895</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-5409075.069798895</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-5395946.674198895</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-5845074.507373068</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-5516356.068473068</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-5516356.068473068</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-5679925.710373068</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-6008363.044773068</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-5832012.110373069</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-5959819.678673069</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-5959819.678673069</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-5959819.678673069</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-6105524.571573069</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-5581697.757780761</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-5651325.951380761</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-5651325.951380761</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-5774684.701480761</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-5774684.701480761</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-5882151.548080761</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-5882151.548080761</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-5877469.879180761</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-5880345.657480761</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-5882073.744580762</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
